--- a/data/EPA_AMPD/2019_renewable_utilities.xlsx
+++ b/data/EPA_AMPD/2019_renewable_utilities.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\EPA_AMPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\ny_academic_model\data\EPA_AMPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD74304-733C-4CB0-87A4-CAFDD36D6143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C8BCC-00AA-4746-9134-6BBD33F80DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D215BC53-44EC-4156-ACAA-0396E39B12A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 renewable" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019 renewable'!$A$1:$N$422</definedName>
     <definedName name="P_III_2_CA">#REF!</definedName>
@@ -2198,37 +2194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Gen_Codes"/>
-      <sheetName val="NYCA_2019"/>
-      <sheetName val="Notes"/>
-      <sheetName val="2019 all"/>
-      <sheetName val="2019 thermal"/>
-      <sheetName val="2019 thermal matched"/>
-      <sheetName val="2019 thermal not matched"/>
-      <sheetName val="2019 thermal import"/>
-      <sheetName val="2019 nuclear"/>
-      <sheetName val="2019 renewable"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2531,7 +2496,7 @@
   <dimension ref="A1:AC422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M380" sqref="M380"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20409,16 +20374,4 @@
   <pageMargins left="0.3" right="0.3" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup scale="58" firstPageNumber="2" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5038A166-328A-41B6-B1FD-0237C29FD52D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>